--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_3_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_3_sawtooth_0.5_.xlsx
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -571,55 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.70000000000058</v>
+        <v>25.11000000000049</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0457043702327331</v>
+        <v>0.001844347907995258</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08701502909782476</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.01365489186507829</v>
-      </c>
+        <v>0.01043977479532889</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>2.909781781244741</v>
+        <v>4.496859984607298</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.02787109129276466, 5.791692471196717]</t>
+          <t>[1.306789425933781, 7.686930543280814]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.0478360315893096</v>
+        <v>0.005850815893534866</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0478360315893096</v>
+        <v>0.006032711322108364</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.207579158136618</v>
+        <v>-1.874263485024541</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.666737307551696, 0.25157899127846095]</t>
+          <t>[-2.6793162571156195, -1.0692107129334634]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.104519571040862</v>
+        <v>6.37658814595099e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>0.104519571040862</v>
+        <v>6.37658814595099e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>13.39210909284594</v>
+        <v>13.85883373332817</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[11.767450688927244, 15.01676749676463]</t>
+          <t>[12.12632703759999, 15.591340429056347]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.939339339339451</v>
+        <v>7.490270270270418</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.029029029029049</v>
+        <v>4.272972972973059</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.90770770770795</v>
+        <v>10.70756756756778</v>
       </c>
     </row>
     <row r="3">
@@ -654,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.38000000000037</v>
+        <v>24.68000000000042</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.646811009670124e-05</v>
+        <v>0.00216392513673791</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001923750511397973</v>
+        <v>0.01043977479532889</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.258481038624705</v>
+        <v>4.568344022262792</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.074736620242314, 9.442225457007096]</t>
+          <t>[1.3182890107369811, 7.818399033788603]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0001353577480467383</v>
+        <v>0.006032711322108364</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0002707154960934766</v>
+        <v>0.006032711322108364</v>
       </c>
       <c r="O3" t="n">
-        <v>2.798816277972889</v>
+        <v>-2.830263651882697</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.220184598032427, 3.3774479579133505]</t>
+          <t>[-3.685632222229467, -1.9748950815359265]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>3.324707176233233e-10</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>6.649414352466465e-10</v>
       </c>
       <c r="S3" t="n">
-        <v>13.0608883951925</v>
+        <v>12.92350581852436</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.227793855245451, 14.89398293513954]</t>
+          <t>[11.106216425952667, 14.740795211096057]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>13.52004004004025</v>
+        <v>11.11711711711731</v>
       </c>
       <c r="X3" t="n">
-        <v>11.27483483483501</v>
+        <v>7.757277277277411</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.76524524524548</v>
+        <v>14.4769569569572</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_3_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_3_sawtooth_0.5_.xlsx
@@ -571,53 +571,55 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.11000000000049</v>
+        <v>25.75000000000059</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001844347907995258</v>
+        <v>0.0030307016290545</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01043977479532889</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>0.006490882705587811</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.008111033051040217</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.496859984607298</v>
+        <v>4.144479479067961</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.306789425933781, 7.686930543280814]</t>
+          <t>[0.9305246851749924, 7.358434272960929]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.005850815893534866</v>
+        <v>0.01162833286703857</v>
       </c>
       <c r="N2" t="n">
-        <v>0.006032711322108364</v>
+        <v>0.01162833286703857</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.874263485024541</v>
+        <v>-1.018894914677771</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.6793162571156195, -1.0692107129334634]</t>
+          <t>[-1.7862108380770803, -0.2515789912784623]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>6.37658814595099e-06</v>
+        <v>0.009387773125818732</v>
       </c>
       <c r="R2" t="n">
-        <v>6.37658814595099e-06</v>
+        <v>0.009387773125818732</v>
       </c>
       <c r="S2" t="n">
-        <v>13.85883373332817</v>
+        <v>14.32283420872507</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[12.12632703759999, 15.591340429056347]</t>
+          <t>[12.639894115479315, 16.005774301970824]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>7.490270270270418</v>
+        <v>4.175675675675773</v>
       </c>
       <c r="X2" t="n">
-        <v>4.272972972973059</v>
+        <v>1.031031031031056</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.70756756756778</v>
+        <v>7.320320320320491</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +654,55 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.68000000000042</v>
+        <v>24.20000000000034</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00216392513673791</v>
+        <v>3.571717751327252e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01043977479532889</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>0.0004150760997310774</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.04739581455869801</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>4.568344022262792</v>
+        <v>6.04750445529341</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[1.3182890107369811, 7.818399033788603]</t>
+          <t>[2.4989629276887264, 9.596045982898094]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.006032711322108364</v>
+        <v>0.0009029647026510546</v>
       </c>
       <c r="N3" t="n">
-        <v>0.006032711322108364</v>
+        <v>0.001805929405302109</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.830263651882697</v>
+        <v>2.509500438002657</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-3.685632222229467, -1.9748950815359265]</t>
+          <t>[1.9560266571900415, 3.062974218815273]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>3.324707176233233e-10</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>6.649414352466465e-10</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>12.92350581852436</v>
+        <v>11.90867314194529</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.106216425952667, 14.740795211096057]</t>
+          <t>[10.076532886198319, 13.74081339769226]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>11.11711711711731</v>
+        <v>14.53453453453474</v>
       </c>
       <c r="X3" t="n">
-        <v>7.757277277277411</v>
+        <v>12.40280280280298</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.4769569569572</v>
+        <v>16.6662662662665</v>
       </c>
     </row>
   </sheetData>
